--- a/biology/Botanique/Oncothecaceae/Oncothecaceae.xlsx
+++ b/biology/Botanique/Oncothecaceae/Oncothecaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Oncothécacées est une famille de plantes dicotylédones qui ne comprend que 2 espèces du genre Oncotheca.
 Ce sont des arbres ou des arbustes, à feuilles persistantes, endémiques de Nouvelle-Calédonie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Oncotheca est composé des mots grecs όγκος /  onkos, grosseur et θεκα / theca, boite ou en botanique l'anthère d'une étamine, se référant aux connectifs épaissis des étamines[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Oncotheca est composé des mots grecs όγκος /  onkos, grosseur et θεκα / theca, boite ou en botanique l'anthère d'une étamine, se référant aux connectifs épaissis des étamines.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe la divergence de cette famille au niveau des Lamiidées ou Euastéridées I.
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (2 Jul 2010)[2], NCBI  (2 Jul 2010)[3] et DELTA Angio           (2 Jul 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (2 Jul 2010), NCBI  (2 Jul 2010) et DELTA Angio           (2 Jul 2010) :
 genre Oncotheca Baill.</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 Jul 2010)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 Jul 2010) :
 Oncotheca (en)
 Oncotheca balansae</t>
         </is>
